--- a/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export_pre_processed_font_color_changed.xlsx
+++ b/01_Vor_und_Nachbereitung_von_XLSX_Dateien_für_die_Übersetzung/Code_Solutions/files/DPDHL-Chatbot-Export_pre_processed_font_color_changed.xlsx
@@ -11775,13 +11775,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{543F517A-D0F3-4FA3-9F6D-5C7B824F93B0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4634B5D-D0FD-4FC1-80B0-D6AD62966F00}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBB3B93D-6416-4F99-89B9-21609AA7F3AF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{932F4EAD-9831-484E-A674-B7B4935D3897}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F698043E-F0FE-4A83-ABFF-8262A4DEF84D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA1B2F62-167A-488E-970B-FA2D434C1657}"/>
 </file>